--- a/Result.xlsx
+++ b/Result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="52">
   <si>
     <t>Category aware</t>
   </si>
@@ -62,25 +62,22 @@
     <t>Clothing</t>
   </si>
   <si>
-    <t>Popularity based</t>
+    <t>Popularity</t>
   </si>
   <si>
     <t>DCF</t>
   </si>
   <si>
-    <t>DCF hard negative</t>
+    <t>DCF-Hard</t>
   </si>
   <si>
-    <t>PComp</t>
+    <t>P-Companion</t>
   </si>
   <si>
-    <t>PComp*</t>
+    <t>ALCIR-Sup</t>
   </si>
   <si>
-    <t>Triplet</t>
-  </si>
-  <si>
-    <t>Cycle-GAN</t>
+    <t>ALCIR</t>
   </si>
   <si>
     <t>Toys</t>
@@ -131,9 +128,6 @@
     <t>Triplet+Cycle</t>
   </si>
   <si>
-    <t>GAN</t>
-  </si>
-  <si>
     <t>2 AutoEncoders</t>
   </si>
   <si>
@@ -143,7 +137,10 @@
     <t>Cycle + classifier</t>
   </si>
   <si>
-    <t>Popularity based category aware</t>
+    <t>GAN</t>
+  </si>
+  <si>
+    <t>Popularity category aware</t>
   </si>
   <si>
     <t>Single AutoEncoder</t>
@@ -184,7 +181,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -226,6 +223,10 @@
     <font>
       <b/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -344,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -495,6 +496,9 @@
     <xf borderId="11" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -514,7 +518,7 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -535,7 +539,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -893,7 +897,7 @@
         <v>0.23391278</v>
       </c>
       <c r="K4" s="17">
-        <f t="shared" ref="K4:K24" si="1">round(100*L4/M4,2)</f>
+        <f t="shared" ref="K4:K21" si="1">round(100*L4/M4,2)</f>
         <v>6.99</v>
       </c>
       <c r="L4" s="18">
@@ -1032,35 +1036,35 @@
         <v>18</v>
       </c>
       <c r="C7" s="22">
-        <v>0.0234040235508746</v>
+        <v>0.0420794641012897</v>
       </c>
       <c r="D7" s="22">
-        <v>0.0292436227646091</v>
+        <v>0.0517212442309148</v>
       </c>
       <c r="E7" s="22">
-        <v>0.0433885398105191</v>
+        <v>0.0699324201944945</v>
       </c>
       <c r="F7" s="22">
-        <v>0.211916980297108</v>
+        <v>0.238368745899058</v>
       </c>
       <c r="G7" s="22">
-        <v>0.0172308627516031</v>
+        <v>0.0303446166217327</v>
       </c>
       <c r="H7" s="22">
-        <v>0.0405611470341682</v>
+        <v>0.0709057673811912</v>
       </c>
       <c r="I7" s="22">
-        <v>0.0606892332434654</v>
+        <v>0.102012805640697</v>
       </c>
       <c r="J7" s="23">
-        <v>0.114059165120124</v>
+        <v>0.169258922338485</v>
       </c>
       <c r="K7" s="24">
         <f t="shared" si="1"/>
-        <v>6.99</v>
+        <v>84.59</v>
       </c>
       <c r="L7" s="11">
-        <v>1261.0</v>
+        <v>15250.0</v>
       </c>
       <c r="M7" s="25">
         <v>18028.0</v>
@@ -1086,35 +1090,35 @@
         <v>19</v>
       </c>
       <c r="C8" s="22">
-        <v>0.0420794641012897</v>
+        <v>0.0982223</v>
       </c>
       <c r="D8" s="22">
-        <v>0.0517212442309148</v>
+        <v>0.11581132</v>
       </c>
       <c r="E8" s="22">
-        <v>0.0699324201944945</v>
+        <v>0.145742</v>
       </c>
       <c r="F8" s="22">
-        <v>0.238368745899058</v>
+        <v>0.29804</v>
       </c>
       <c r="G8" s="22">
-        <v>0.0303446166217327</v>
+        <v>0.07410795</v>
       </c>
       <c r="H8" s="22">
-        <v>0.0709057673811912</v>
+        <v>0.150198236</v>
       </c>
       <c r="I8" s="22">
-        <v>0.102012805640697</v>
+        <v>0.2028057277202</v>
       </c>
       <c r="J8" s="23">
-        <v>0.169258922338485</v>
+        <v>0.302073806</v>
       </c>
       <c r="K8" s="24">
         <f t="shared" si="1"/>
-        <v>84.59</v>
+        <v>89.92</v>
       </c>
       <c r="L8" s="11">
-        <v>15250.0</v>
+        <v>16210.0</v>
       </c>
       <c r="M8" s="25">
         <v>18028.0</v>
@@ -1136,41 +1140,41 @@
       <c r="AE8" s="20"/>
     </row>
     <row r="9">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="22">
-        <v>0.0982223</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0.11581132</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.145742</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0.29804</v>
-      </c>
-      <c r="G9" s="22">
-        <v>0.07410795</v>
-      </c>
-      <c r="H9" s="22">
-        <v>0.150198236</v>
-      </c>
-      <c r="I9" s="22">
-        <v>0.2028057277202</v>
-      </c>
-      <c r="J9" s="23">
-        <v>0.302073806</v>
-      </c>
-      <c r="K9" s="24">
+      <c r="C9" s="10">
+        <v>0.11918</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.13847</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.1682533</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.31616</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.0919487625</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.177188172</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.233455315232</v>
+      </c>
+      <c r="J9" s="28">
+        <v>0.3315035</v>
+      </c>
+      <c r="K9" s="29">
         <f t="shared" si="1"/>
-        <v>89.92</v>
-      </c>
-      <c r="L9" s="11">
-        <v>16210.0</v>
-      </c>
-      <c r="M9" s="25">
+        <v>88.5</v>
+      </c>
+      <c r="L9" s="30">
+        <v>15955.0</v>
+      </c>
+      <c r="M9" s="31">
         <v>18028.0</v>
       </c>
       <c r="N9" s="26"/>
@@ -1180,117 +1184,117 @@
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
       <c r="W9" s="3"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
     </row>
     <row r="10">
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10">
-        <v>0.11918</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.13847</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.1682533</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.31616</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.0919487625</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.177188172</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.233455315232</v>
-      </c>
-      <c r="J10" s="28">
-        <v>0.3315035</v>
-      </c>
-      <c r="K10" s="29">
-        <f t="shared" si="1"/>
-        <v>88.5</v>
-      </c>
-      <c r="L10" s="30">
-        <v>15955.0</v>
-      </c>
-      <c r="M10" s="31">
-        <v>18028.0</v>
-      </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C10" s="15">
         <v>0.052370965844582</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D10" s="15">
         <v>0.0635032886057291</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E10" s="15">
         <v>0.0839167918149808</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F10" s="15">
         <v>0.23129</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G10" s="15">
         <v>0.03837561</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H10" s="15">
         <v>0.08736237</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I10" s="15">
         <v>0.1262964755296</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J10" s="16">
         <v>0.19961704313</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K10" s="17">
         <f t="shared" si="1"/>
         <v>5.13</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L10" s="18">
         <v>1240.0</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M10" s="19">
         <v>24173.0</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="V11" s="13"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.0133681587687994</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0.0168472181341304</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.0258417572692302</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.193202110752405</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.00933460984379053</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.0263283867388963</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0.0421254187822341</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0.0812988653779029</v>
+      </c>
+      <c r="K11" s="24">
+        <f t="shared" si="1"/>
+        <v>5.96</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1440.0</v>
+      </c>
+      <c r="M11" s="25">
+        <v>24173.0</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
       <c r="W11" s="3"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
@@ -1303,38 +1307,38 @@
     </row>
     <row r="12">
       <c r="B12" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="22">
-        <v>0.0133681587687994</v>
+        <v>0.0252574889388031</v>
       </c>
       <c r="D12" s="22">
-        <v>0.0168472181341304</v>
+        <v>0.0297785614083519</v>
       </c>
       <c r="E12" s="22">
-        <v>0.0258417572692302</v>
+        <v>0.041068721128518</v>
       </c>
       <c r="F12" s="22">
-        <v>0.193202110752405</v>
+        <v>0.208096673184279</v>
       </c>
       <c r="G12" s="33">
-        <v>0.00933460984379053</v>
+        <v>0.0166746452450752</v>
       </c>
       <c r="H12" s="33">
-        <v>0.0263283867388963</v>
+        <v>0.0456358715891838</v>
       </c>
       <c r="I12" s="33">
-        <v>0.0421254187822341</v>
+        <v>0.0639859586954116</v>
       </c>
       <c r="J12" s="34">
-        <v>0.0812988653779029</v>
+        <v>0.110738791525363</v>
       </c>
       <c r="K12" s="24">
         <f t="shared" si="1"/>
-        <v>5.96</v>
+        <v>36.72</v>
       </c>
       <c r="L12" s="11">
-        <v>1440.0</v>
+        <v>8876.0</v>
       </c>
       <c r="M12" s="25">
         <v>24173.0</v>
@@ -1357,38 +1361,38 @@
     </row>
     <row r="13">
       <c r="B13" s="21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="22">
-        <v>0.0252574889388031</v>
+        <v>0.0393992567983202</v>
       </c>
       <c r="D13" s="22">
-        <v>0.0297785614083519</v>
+        <v>0.0485947786771512</v>
       </c>
       <c r="E13" s="22">
-        <v>0.041068721128518</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0.208096673184279</v>
+        <v>0.0660376591017486</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.235314522786991</v>
       </c>
       <c r="G13" s="33">
-        <v>0.0166746452450752</v>
+        <v>0.027924045920372</v>
       </c>
       <c r="H13" s="33">
-        <v>0.0456358715891838</v>
-      </c>
-      <c r="I13" s="33">
-        <v>0.0639859586954116</v>
+        <v>0.0689325034618377</v>
+      </c>
+      <c r="I13" s="35">
+        <v>0.104037016630172</v>
       </c>
       <c r="J13" s="34">
-        <v>0.110738791525363</v>
+        <v>0.172091916203498</v>
       </c>
       <c r="K13" s="24">
         <f t="shared" si="1"/>
-        <v>36.72</v>
+        <v>93.78</v>
       </c>
       <c r="L13" s="11">
-        <v>8876.0</v>
+        <v>22669.0</v>
       </c>
       <c r="M13" s="25">
         <v>24173.0</v>
@@ -1411,38 +1415,38 @@
     </row>
     <row r="14">
       <c r="B14" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="22">
-        <v>0.0171645099283523</v>
+        <v>0.0930175907518653</v>
       </c>
       <c r="D14" s="22">
-        <v>0.0219701555988329</v>
+        <v>0.109899029266169</v>
       </c>
       <c r="E14" s="22">
-        <v>0.0322268139533288</v>
+        <v>0.138684223479208</v>
       </c>
       <c r="F14" s="22">
-        <v>0.198999602153275</v>
-      </c>
-      <c r="G14" s="33">
-        <v>0.0101324394345283</v>
-      </c>
-      <c r="H14" s="33">
-        <v>0.0277644805610179</v>
-      </c>
-      <c r="I14" s="33">
-        <v>0.0461145676672458</v>
-      </c>
-      <c r="J14" s="34">
-        <v>0.0845699682831764</v>
+        <v>0.29653</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0.0726823</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0.1517472416162</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.2045635879039</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.30317535</v>
       </c>
       <c r="K14" s="24">
         <f t="shared" si="1"/>
-        <v>5.13</v>
+        <v>90.46</v>
       </c>
       <c r="L14" s="11">
-        <v>1240.0</v>
+        <v>21866.0</v>
       </c>
       <c r="M14" s="25">
         <v>24173.0</v>
@@ -1464,41 +1468,41 @@
       <c r="AE14" s="20"/>
     </row>
     <row r="15">
-      <c r="B15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="22">
-        <v>0.0393992567983202</v>
-      </c>
-      <c r="D15" s="22">
-        <v>0.0485947786771512</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0.0660376591017486</v>
-      </c>
-      <c r="F15" s="35">
-        <v>0.235314522786991</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0.027924045920372</v>
-      </c>
-      <c r="H15" s="33">
-        <v>0.0689325034618377</v>
-      </c>
-      <c r="I15" s="35">
-        <v>0.104037016630172</v>
-      </c>
-      <c r="J15" s="34">
-        <v>0.172091916203498</v>
-      </c>
-      <c r="K15" s="24">
+      <c r="B15" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.10217202292696</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.120758307805269</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.151905564057308</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.30781</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.07762885</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.16283708</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0.22395084798336</v>
+      </c>
+      <c r="J15" s="28">
+        <v>0.33038136</v>
+      </c>
+      <c r="K15" s="29">
         <f t="shared" si="1"/>
-        <v>93.78</v>
-      </c>
-      <c r="L15" s="11">
-        <v>22669.0</v>
-      </c>
-      <c r="M15" s="25">
+        <v>82.62</v>
+      </c>
+      <c r="L15" s="30">
+        <v>19971.0</v>
+      </c>
+      <c r="M15" s="31">
         <v>24173.0</v>
       </c>
       <c r="N15" s="26"/>
@@ -1508,59 +1512,63 @@
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
       <c r="W15" s="3"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
     </row>
     <row r="16">
-      <c r="B16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="22">
-        <v>0.0930175907518653</v>
-      </c>
-      <c r="D16" s="22">
-        <v>0.109899029266169</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0.138684223479208</v>
-      </c>
-      <c r="F16" s="22">
-        <v>0.29653</v>
-      </c>
-      <c r="G16" s="22">
-        <v>0.0726823</v>
-      </c>
-      <c r="H16" s="22">
-        <v>0.1517472416162</v>
-      </c>
-      <c r="I16" s="22">
-        <v>0.2045635879039</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0.30317535</v>
-      </c>
-      <c r="K16" s="24">
+      <c r="A16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.0692403113390253</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.0850124982685684</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.112045772249824</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0.25136</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.047586046159</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.110602907836</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0.1596211642</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.25460845</v>
+      </c>
+      <c r="K16" s="17">
         <f t="shared" si="1"/>
-        <v>90.46</v>
-      </c>
-      <c r="L16" s="11">
-        <v>21866.0</v>
-      </c>
-      <c r="M16" s="25">
-        <v>24173.0</v>
-      </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
+        <v>8.2</v>
+      </c>
+      <c r="L16" s="18">
+        <v>2860.0</v>
+      </c>
+      <c r="M16" s="19">
+        <v>34885.0</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="V16" s="13"/>
       <c r="W16" s="3"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
@@ -1572,42 +1580,42 @@
       <c r="AE16" s="20"/>
     </row>
     <row r="17">
-      <c r="B17" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.10217202292696</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.120758307805269</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.151905564057308</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.30781</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0.07762885</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.16283708</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0.22395084798336</v>
-      </c>
-      <c r="J17" s="28">
-        <v>0.33038136</v>
-      </c>
-      <c r="K17" s="29">
+      <c r="B17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.0175667085621544</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.0232086447095401</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.0360383376743312</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.210776524009521</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.0110418107360601</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.0319704301655292</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0.0510510504245758</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.10237929970026</v>
+      </c>
+      <c r="K17" s="24">
         <f t="shared" si="1"/>
-        <v>82.62</v>
-      </c>
-      <c r="L17" s="30">
-        <v>19971.0</v>
-      </c>
-      <c r="M17" s="31">
-        <v>24173.0</v>
+        <v>8.32</v>
+      </c>
+      <c r="L17" s="11">
+        <v>2902.0</v>
+      </c>
+      <c r="M17" s="25">
+        <v>34885.0</v>
       </c>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
@@ -1616,63 +1624,59 @@
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.0692403113390253</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.0850124982685684</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0.112045772249824</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0.25136</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0.047586046159</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0.110602907836</v>
-      </c>
-      <c r="I18" s="15">
-        <v>0.1596211642</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0.25460845</v>
-      </c>
-      <c r="K18" s="17">
+      <c r="B18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.0239613995201699</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.0314382494627959</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0.0469938946821331</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.220711559337894</v>
+      </c>
+      <c r="G18" s="22">
+        <v>0.0137676140293478</v>
+      </c>
+      <c r="H18" s="22">
+        <v>0.0137676140293478</v>
+      </c>
+      <c r="I18" s="22">
+        <v>0.0462462455034256</v>
+      </c>
+      <c r="J18" s="23">
+        <v>0.0768306776881218</v>
+      </c>
+      <c r="K18" s="24">
         <f t="shared" si="1"/>
-        <v>8.2</v>
-      </c>
-      <c r="L18" s="18">
-        <v>2860.0</v>
-      </c>
-      <c r="M18" s="19">
+        <v>12.82</v>
+      </c>
+      <c r="L18" s="11">
+        <v>4474.0</v>
+      </c>
+      <c r="M18" s="25">
         <v>34885.0</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="V18" s="13"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
       <c r="W18" s="3"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
@@ -1685,38 +1689,38 @@
     </row>
     <row r="19">
       <c r="B19" s="21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="22">
-        <v>0.0175667085621544</v>
+        <v>0.0452846787992142</v>
       </c>
       <c r="D19" s="22">
-        <v>0.0232086447095401</v>
+        <v>0.0562675667409589</v>
       </c>
       <c r="E19" s="22">
-        <v>0.0360383376743312</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0.210776524009521</v>
+        <v>0.0765996218330192</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0.245189912077331</v>
       </c>
       <c r="G19" s="22">
-        <v>0.0110418107360601</v>
+        <v>0.0317394323647022</v>
       </c>
       <c r="H19" s="22">
-        <v>0.0319704301655292</v>
+        <v>0.0752136781811714</v>
       </c>
       <c r="I19" s="22">
-        <v>0.0510510504245758</v>
+        <v>0.111480712890625</v>
       </c>
       <c r="J19" s="23">
-        <v>0.10237929970026</v>
+        <v>0.187017783522605</v>
       </c>
       <c r="K19" s="24">
         <f t="shared" si="1"/>
-        <v>8.32</v>
-      </c>
-      <c r="L19" s="11">
-        <v>2902.0</v>
+        <v>94.45</v>
+      </c>
+      <c r="L19" s="3">
+        <v>32950.0</v>
       </c>
       <c r="M19" s="25">
         <v>34885.0</v>
@@ -1739,38 +1743,38 @@
     </row>
     <row r="20">
       <c r="B20" s="21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="22">
-        <v>0.0239613995201699</v>
+        <v>0.093176206613995</v>
       </c>
       <c r="D20" s="22">
-        <v>0.0314382494627959</v>
+        <v>0.110979596518488</v>
       </c>
       <c r="E20" s="22">
-        <v>0.0469938946821331</v>
+        <v>0.139311862923928</v>
       </c>
       <c r="F20" s="22">
-        <v>0.220711559337894</v>
+        <v>0.29556</v>
       </c>
       <c r="G20" s="22">
-        <v>0.0137676140293478</v>
+        <v>0.0679602697</v>
       </c>
       <c r="H20" s="22">
-        <v>0.0137676140293478</v>
+        <v>0.14224994</v>
       </c>
       <c r="I20" s="22">
-        <v>0.0462462455034256</v>
+        <v>0.196904599666595</v>
       </c>
       <c r="J20" s="23">
-        <v>0.0768306776881218</v>
+        <v>0.2927697002</v>
       </c>
       <c r="K20" s="24">
         <f t="shared" si="1"/>
-        <v>12.82</v>
+        <v>93.44</v>
       </c>
       <c r="L20" s="11">
-        <v>4474.0</v>
+        <v>32595.0</v>
       </c>
       <c r="M20" s="25">
         <v>34885.0</v>
@@ -1792,41 +1796,41 @@
       <c r="AE20" s="20"/>
     </row>
     <row r="21">
-      <c r="B21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="22">
-        <v>0.0228275981828209</v>
-      </c>
-      <c r="D21" s="22">
-        <v>0.0300254668841221</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.0449821985149342</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.21821159353806</v>
-      </c>
-      <c r="G21" s="22">
-        <v>0.0141834141686558</v>
-      </c>
-      <c r="H21" s="22">
-        <v>0.0358974374830722</v>
-      </c>
-      <c r="I21" s="22">
-        <v>0.056179255247116</v>
-      </c>
-      <c r="J21" s="23">
-        <v>0.106398709118366</v>
-      </c>
-      <c r="K21" s="24">
+      <c r="B21" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.101491794416454</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0.119694825162183</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.149778632305706</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0.3035</v>
+      </c>
+      <c r="G21" s="36">
+        <v>0.076692074</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0.15472395</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0.20965580642223</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0.3118965</v>
+      </c>
+      <c r="K21" s="29">
         <f t="shared" si="1"/>
-        <v>8.89</v>
-      </c>
-      <c r="L21" s="11">
-        <v>3100.0</v>
-      </c>
-      <c r="M21" s="25">
+        <v>94.38</v>
+      </c>
+      <c r="L21" s="30">
+        <v>32923.0</v>
+      </c>
+      <c r="M21" s="31">
         <v>34885.0</v>
       </c>
       <c r="N21" s="26"/>
@@ -1836,319 +1840,319 @@
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="W21" s="3"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
     </row>
     <row r="22">
-      <c r="B22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="22">
-        <v>0.0452846787992142</v>
-      </c>
-      <c r="D22" s="22">
-        <v>0.0562675667409589</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0.0765996218330192</v>
-      </c>
-      <c r="F22" s="35">
-        <v>0.245189912077331</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0.0317394323647022</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0.0752136781811714</v>
-      </c>
-      <c r="I22" s="22">
-        <v>0.111480712890625</v>
-      </c>
-      <c r="J22" s="23">
-        <v>0.187017783522605</v>
-      </c>
-      <c r="K22" s="24">
-        <f t="shared" si="1"/>
-        <v>94.45</v>
-      </c>
-      <c r="L22" s="3">
-        <v>32950.0</v>
-      </c>
-      <c r="M22" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="23">
-      <c r="B23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="22">
-        <v>0.093176206613995</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.110979596518488</v>
-      </c>
-      <c r="E23" s="22">
-        <v>0.139311862923928</v>
-      </c>
-      <c r="F23" s="22">
-        <v>0.29556</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0.0679602697</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0.14224994</v>
-      </c>
-      <c r="I23" s="22">
-        <v>0.196904599666595</v>
-      </c>
-      <c r="J23" s="23">
-        <v>0.2927697002</v>
-      </c>
-      <c r="K23" s="24">
-        <f t="shared" si="1"/>
-        <v>93.44</v>
-      </c>
-      <c r="L23" s="11">
-        <v>32595.0</v>
-      </c>
-      <c r="M23" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
     </row>
     <row r="24">
-      <c r="B24" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="36">
-        <v>0.101491794416454</v>
-      </c>
-      <c r="D24" s="36">
-        <v>0.119694825162183</v>
-      </c>
-      <c r="E24" s="36">
-        <v>0.149778632305706</v>
-      </c>
-      <c r="F24" s="36">
-        <v>0.3035</v>
-      </c>
-      <c r="G24" s="36">
-        <v>0.076692074</v>
-      </c>
-      <c r="H24" s="36">
-        <v>0.15472395</v>
-      </c>
-      <c r="I24" s="36">
-        <v>0.20965580642223</v>
-      </c>
-      <c r="J24" s="37">
-        <v>0.3118965</v>
-      </c>
-      <c r="K24" s="29">
-        <f t="shared" si="1"/>
-        <v>94.38</v>
-      </c>
-      <c r="L24" s="30">
-        <v>32923.0</v>
-      </c>
-      <c r="M24" s="31">
-        <v>34885.0</v>
-      </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
     </row>
     <row r="26">
-      <c r="B26" s="22"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="A26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.00143029133082389</v>
+      </c>
+      <c r="D26" s="15">
+        <v>0.0022256335431021</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.0028376180148807</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0.09885</v>
+      </c>
+      <c r="G26" s="15">
+        <v>7.6242757E-4</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0.0024397682</v>
+      </c>
+      <c r="I26" s="15">
+        <v>0.00472705</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0.0067093</v>
+      </c>
+      <c r="K26" s="24">
+        <f t="shared" ref="K26:K43" si="2">round(100*L26/M26,2)</f>
+        <v>0.06</v>
+      </c>
+      <c r="L26" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="M26" s="25">
+        <v>18028.0</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="B27" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="22">
+        <v>3.05766159628629E-4</v>
+      </c>
+      <c r="D27" s="22">
+        <v>3.06108922014497E-4</v>
+      </c>
+      <c r="E27" s="22">
+        <v>3.70376734643544E-4</v>
+      </c>
+      <c r="F27" s="22">
+        <v>0.110847850179846</v>
+      </c>
+      <c r="G27" s="22">
+        <v>3.15457407850772E-4</v>
+      </c>
+      <c r="H27" s="22">
+        <v>6.30914815701544E-4</v>
+      </c>
+      <c r="I27" s="22">
+        <v>9.46372223552316E-4</v>
+      </c>
+      <c r="J27" s="23">
+        <v>0.00157728709746152</v>
+      </c>
+      <c r="K27" s="24">
+        <f t="shared" si="2"/>
+        <v>0.09</v>
+      </c>
+      <c r="L27" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="M27" s="25">
+        <v>18028.0</v>
+      </c>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
     </row>
     <row r="28">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
+      <c r="B28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="22">
+        <v>9.65754746988797E-4</v>
+      </c>
+      <c r="D28" s="22">
+        <v>9.48423851082496E-4</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0.00118223760039539</v>
+      </c>
+      <c r="F28" s="22">
+        <v>0.118065331350815</v>
+      </c>
+      <c r="G28" s="22">
+        <v>6.30914815701544E-4</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0.00252365926280617</v>
+      </c>
+      <c r="I28" s="22">
+        <v>0.00347003154456615</v>
+      </c>
+      <c r="J28" s="23">
+        <v>0.00662460550665855</v>
+      </c>
+      <c r="K28" s="24">
+        <f t="shared" si="2"/>
+        <v>1.82</v>
+      </c>
+      <c r="L28" s="11">
+        <v>328.0</v>
+      </c>
+      <c r="M28" s="25">
+        <v>18028.0</v>
+      </c>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="15">
-        <v>0.00143029133082389</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.0022256335431021</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.0028376180148807</v>
-      </c>
-      <c r="F29" s="15">
-        <v>0.09885</v>
-      </c>
-      <c r="G29" s="15">
-        <v>7.6242757E-4</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0.0024397682</v>
-      </c>
-      <c r="I29" s="15">
-        <v>0.00472705</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0.0067093</v>
+      <c r="B29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="22">
+        <v>3.69761108191029E-4</v>
+      </c>
+      <c r="D29" s="22">
+        <v>4.85976499447067E-4</v>
+      </c>
+      <c r="E29" s="22">
+        <v>5.67983104800075E-4</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0.110544551857796</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="22">
+        <v>9.46372223552316E-4</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0.00157728709746152</v>
+      </c>
+      <c r="J29" s="23">
+        <v>0.00252365926280617</v>
       </c>
       <c r="K29" s="24">
-        <f t="shared" ref="K29:K49" si="2">round(100*L29/M29,2)</f>
-        <v>0.06</v>
+        <f t="shared" si="2"/>
+        <v>0.62</v>
       </c>
       <c r="L29" s="11">
-        <v>10.0</v>
+        <v>111.0</v>
       </c>
       <c r="M29" s="25">
         <v>18028.0</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="V29" s="13"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
       <c r="W29" s="3"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
@@ -2161,38 +2165,38 @@
     </row>
     <row r="30">
       <c r="B30" s="21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C30" s="22">
-        <v>3.05766159628629E-4</v>
+        <v>0.0111206</v>
       </c>
       <c r="D30" s="22">
-        <v>3.06108922014497E-4</v>
+        <v>0.012341</v>
       </c>
       <c r="E30" s="22">
-        <v>3.70376734643544E-4</v>
+        <v>0.01656931</v>
       </c>
       <c r="F30" s="22">
-        <v>0.110847850179846</v>
+        <v>0.15013676667</v>
       </c>
       <c r="G30" s="22">
-        <v>3.15457407850772E-4</v>
+        <v>0.0088328076526</v>
       </c>
       <c r="H30" s="22">
-        <v>6.30914815701544E-4</v>
+        <v>0.0246056</v>
       </c>
       <c r="I30" s="22">
-        <v>9.46372223552316E-4</v>
+        <v>0.03596214</v>
       </c>
       <c r="J30" s="23">
-        <v>0.00157728709746152</v>
+        <v>0.0599369</v>
       </c>
       <c r="K30" s="24">
         <f t="shared" si="2"/>
-        <v>0.09</v>
+        <v>59.36</v>
       </c>
       <c r="L30" s="11">
-        <v>16.0</v>
+        <v>10701.0</v>
       </c>
       <c r="M30" s="25">
         <v>18028.0</v>
@@ -2214,39 +2218,39 @@
       <c r="AE30" s="20"/>
     </row>
     <row r="31">
-      <c r="B31" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="22">
-        <v>9.65754746988797E-4</v>
-      </c>
-      <c r="D31" s="22">
-        <v>9.48423851082496E-4</v>
-      </c>
-      <c r="E31" s="22">
-        <v>0.00118223760039539</v>
-      </c>
-      <c r="F31" s="22">
-        <v>0.118065331350815</v>
-      </c>
-      <c r="G31" s="22">
-        <v>6.30914815701544E-4</v>
-      </c>
-      <c r="H31" s="22">
-        <v>0.00252365926280617</v>
-      </c>
-      <c r="I31" s="22">
-        <v>0.00347003154456615</v>
-      </c>
-      <c r="J31" s="23">
-        <v>0.00662460550665855</v>
+      <c r="B31" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.018475679</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.022463</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.0300487</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0.169755426</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0.0123028</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.038170348</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.0599369</v>
+      </c>
+      <c r="J31" s="28">
+        <v>0.0984227</v>
       </c>
       <c r="K31" s="24">
         <f t="shared" si="2"/>
-        <v>1.82</v>
+        <v>60.55</v>
       </c>
       <c r="L31" s="11">
-        <v>328.0</v>
+        <v>10916.0</v>
       </c>
       <c r="M31" s="25">
         <v>18028.0</v>
@@ -2258,59 +2262,63 @@
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
       <c r="W31" s="3"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
     </row>
     <row r="32">
-      <c r="B32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="22">
-        <v>0.00126182965299684</v>
-      </c>
-      <c r="D32" s="22">
-        <v>7.49878518640702E-4</v>
-      </c>
-      <c r="E32" s="22">
-        <v>9.43080773986766E-4</v>
-      </c>
-      <c r="F32" s="22">
-        <v>0.110653506432636</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0.00126182963140308</v>
-      </c>
-      <c r="H32" s="22">
-        <v>0.00157728709746152</v>
-      </c>
-      <c r="I32" s="22">
-        <v>0.00189274444710463</v>
-      </c>
-      <c r="J32" s="23">
-        <v>0.00378548889420926</v>
-      </c>
-      <c r="K32" s="24">
+      <c r="A32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0.00116889272598061</v>
+      </c>
+      <c r="D32" s="15">
+        <v>0.00137177287076415</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.00206229323476429</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0.10205</v>
+      </c>
+      <c r="G32" s="15">
+        <v>0.0010371789103</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0.00215414073</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0.0027924</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0.00542524317</v>
+      </c>
+      <c r="K32" s="17">
         <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-      <c r="L32" s="11">
-        <v>15.0</v>
-      </c>
-      <c r="M32" s="25">
-        <v>18028.0</v>
-      </c>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
+        <v>0.04</v>
+      </c>
+      <c r="L32" s="18">
+        <v>10.0</v>
+      </c>
+      <c r="M32" s="19">
+        <v>24173.0</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="V32" s="13"/>
       <c r="W32" s="3"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
@@ -2323,48 +2331,48 @@
     </row>
     <row r="33">
       <c r="B33" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="22">
-        <v>3.69761108191029E-4</v>
+        <v>2.16307317825654E-4</v>
       </c>
       <c r="D33" s="22">
-        <v>4.85976499447067E-4</v>
+        <v>2.16808150627314E-4</v>
       </c>
       <c r="E33" s="22">
-        <v>5.67983104800075E-4</v>
+        <v>1.75107946001686E-4</v>
       </c>
       <c r="F33" s="22">
-        <v>0.110544551857796</v>
+        <v>0.123948321652195</v>
       </c>
       <c r="G33" s="22">
         <v>0.0</v>
       </c>
       <c r="H33" s="22">
-        <v>9.46372223552316E-4</v>
+        <v>9.21871396712958E-4</v>
       </c>
       <c r="I33" s="22">
-        <v>0.00157728709746152</v>
+        <v>0.00138280715327709</v>
       </c>
       <c r="J33" s="23">
-        <v>0.00252365926280617</v>
+        <v>0.00161327491514384</v>
       </c>
       <c r="K33" s="24">
         <f t="shared" si="2"/>
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="L33" s="11">
-        <v>111.0</v>
+        <v>14.0</v>
       </c>
       <c r="M33" s="25">
-        <v>18028.0</v>
-      </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
+        <v>24173.0</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
       <c r="W33" s="3"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
@@ -2377,41 +2385,41 @@
     </row>
     <row r="34">
       <c r="B34" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C34" s="22">
-        <v>0.0111206</v>
+        <v>0.00272796859344786</v>
       </c>
       <c r="D34" s="22">
-        <v>0.012341</v>
+        <v>0.00279919101428919</v>
       </c>
       <c r="E34" s="22">
-        <v>0.01656931</v>
+        <v>0.00331930878237842</v>
       </c>
       <c r="F34" s="22">
-        <v>0.15013676667</v>
+        <v>0.148114637535455</v>
       </c>
       <c r="G34" s="22">
-        <v>0.0088328076526</v>
+        <v>0.00345701770856976</v>
       </c>
       <c r="H34" s="22">
-        <v>0.0246056</v>
+        <v>0.00691403541713953</v>
       </c>
       <c r="I34" s="22">
-        <v>0.03596214</v>
+        <v>0.0101405857130885</v>
       </c>
       <c r="J34" s="23">
-        <v>0.0599369</v>
+        <v>0.0163632165640592</v>
       </c>
       <c r="K34" s="24">
         <f t="shared" si="2"/>
-        <v>59.36</v>
+        <v>5.67</v>
       </c>
       <c r="L34" s="11">
-        <v>10701.0</v>
+        <v>1371.0</v>
       </c>
       <c r="M34" s="25">
-        <v>18028.0</v>
+        <v>24173.0</v>
       </c>
       <c r="N34" s="26"/>
       <c r="O34" s="26"/>
@@ -2430,42 +2438,42 @@
       <c r="AE34" s="20"/>
     </row>
     <row r="35">
-      <c r="B35" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0.018475679</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0.022463</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.0300487</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0.169755426</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0.0123028</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.038170348</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0.0599369</v>
-      </c>
-      <c r="J35" s="28">
-        <v>0.0984227</v>
+      <c r="B35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="22">
+        <v>4.11694862369751E-4</v>
+      </c>
+      <c r="D35" s="22">
+        <v>3.97583735543233E-4</v>
+      </c>
+      <c r="E35" s="22">
+        <v>4.34245522506228E-4</v>
+      </c>
+      <c r="F35" s="35">
+        <v>0.123416801712179</v>
+      </c>
+      <c r="G35" s="22">
+        <v>6.91403576638549E-4</v>
+      </c>
+      <c r="H35" s="22">
+        <v>9.21871396712958E-4</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0.00115233927499502</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0.00230467854999005</v>
       </c>
       <c r="K35" s="24">
         <f t="shared" si="2"/>
-        <v>60.55</v>
+        <v>5.12</v>
       </c>
       <c r="L35" s="11">
-        <v>10916.0</v>
+        <v>1237.0</v>
       </c>
       <c r="M35" s="25">
-        <v>18028.0</v>
+        <v>24173.0</v>
       </c>
       <c r="N35" s="26"/>
       <c r="O35" s="26"/>
@@ -2474,63 +2482,59 @@
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
       <c r="W35" s="3"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="15">
-        <v>0.00116889272598061</v>
-      </c>
-      <c r="D36" s="15">
-        <v>0.00137177287076415</v>
-      </c>
-      <c r="E36" s="15">
-        <v>0.00206229323476429</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0.10205</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0.0010371789103</v>
-      </c>
-      <c r="H36" s="15">
-        <v>0.00215414073</v>
-      </c>
-      <c r="I36" s="15">
-        <v>0.0027924</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0.00542524317</v>
-      </c>
-      <c r="K36" s="17">
+      <c r="B36" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="22">
+        <v>0.0114335757562363</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.013210144049416</v>
+      </c>
+      <c r="E36" s="22">
+        <v>0.0153840811835337</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0.171644</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.0096796</v>
+      </c>
+      <c r="H36" s="22">
+        <v>0.027886</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0.04448029</v>
+      </c>
+      <c r="J36" s="23">
+        <v>0.021433509</v>
+      </c>
+      <c r="K36" s="24">
         <f t="shared" si="2"/>
-        <v>0.04</v>
-      </c>
-      <c r="L36" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="M36" s="19">
+        <v>64.65</v>
+      </c>
+      <c r="L36" s="11">
+        <v>15628.0</v>
+      </c>
+      <c r="M36" s="25">
         <v>24173.0</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="V36" s="13"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
       <c r="W36" s="3"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
@@ -2542,103 +2546,107 @@
       <c r="AE36" s="20"/>
     </row>
     <row r="37">
-      <c r="B37" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="22">
-        <v>2.16307317825654E-4</v>
-      </c>
-      <c r="D37" s="22">
-        <v>2.16808150627314E-4</v>
-      </c>
-      <c r="E37" s="22">
-        <v>1.75107946001686E-4</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0.123948321652195</v>
+      <c r="B37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.0121256097833052</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.0135414951902473</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.017331874920819</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.18412447</v>
       </c>
       <c r="G37" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H37" s="22">
-        <v>9.21871396712958E-4</v>
-      </c>
-      <c r="I37" s="22">
-        <v>0.00138280715327709</v>
-      </c>
-      <c r="J37" s="23">
-        <v>0.00161327491514384</v>
-      </c>
-      <c r="K37" s="24">
+        <v>0.00944918</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.0301912</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0.045632</v>
+      </c>
+      <c r="J37" s="28">
+        <v>0.070984</v>
+      </c>
+      <c r="K37" s="29">
         <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-      <c r="L37" s="11">
-        <v>14.0</v>
-      </c>
-      <c r="M37" s="25">
+        <v>56.03</v>
+      </c>
+      <c r="L37" s="30">
+        <v>13543.0</v>
+      </c>
+      <c r="M37" s="31">
         <v>24173.0</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
       <c r="W37" s="3"/>
-      <c r="X37" s="20"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="32"/>
+      <c r="AA37" s="32"/>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="32"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
     </row>
     <row r="38">
-      <c r="B38" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="22">
-        <v>0.00272796859344786</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0.00279919101428919</v>
-      </c>
-      <c r="E38" s="22">
-        <v>0.00331930878237842</v>
-      </c>
-      <c r="F38" s="22">
-        <v>0.148114637535455</v>
-      </c>
-      <c r="G38" s="22">
-        <v>0.00345701770856976</v>
-      </c>
-      <c r="H38" s="22">
-        <v>0.00691403541713953</v>
-      </c>
-      <c r="I38" s="22">
-        <v>0.0101405857130885</v>
-      </c>
-      <c r="J38" s="23">
-        <v>0.0163632165640592</v>
+      <c r="A38" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="15">
+        <v>4.15751716235096E-4</v>
+      </c>
+      <c r="D38" s="15">
+        <v>4.99008597681481E-4</v>
+      </c>
+      <c r="E38" s="15">
+        <v>7.00059978577987E-4</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0.09302</v>
+      </c>
+      <c r="G38" s="15">
+        <v>2.7720027E-4</v>
+      </c>
+      <c r="H38" s="15">
+        <v>6.93E-4</v>
+      </c>
+      <c r="I38" s="15">
+        <v>0.0013398</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0.0019404</v>
       </c>
       <c r="K38" s="24">
         <f t="shared" si="2"/>
-        <v>5.67</v>
+        <v>0.03</v>
       </c>
       <c r="L38" s="11">
-        <v>1371.0</v>
+        <v>10.0</v>
       </c>
       <c r="M38" s="25">
-        <v>24173.0</v>
-      </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
+        <v>34885.0</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="V38" s="13"/>
       <c r="W38" s="3"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
@@ -2651,41 +2659,41 @@
     </row>
     <row r="39">
       <c r="B39" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="22">
-        <v>2.95846599185123E-4</v>
+        <v>3.61709867518458E-4</v>
       </c>
       <c r="D39" s="22">
-        <v>3.22377992383838E-4</v>
+        <v>3.4121521064836E-4</v>
       </c>
       <c r="E39" s="22">
-        <v>3.94980055732666E-4</v>
+        <v>3.35394524565042E-4</v>
       </c>
       <c r="F39" s="22">
-        <v>0.123754767380198</v>
+        <v>0.117041719880916</v>
       </c>
       <c r="G39" s="22">
-        <v>0.0</v>
+        <v>4.81077615404501E-4</v>
       </c>
       <c r="H39" s="22">
-        <v>2.30467849178239E-4</v>
+        <v>9.62155230809003E-4</v>
       </c>
       <c r="I39" s="22">
-        <v>2.30467849178239E-4</v>
+        <v>0.00128287367988377</v>
       </c>
       <c r="J39" s="23">
-        <v>9.21871396712958E-4</v>
+        <v>0.00176395126618444</v>
       </c>
       <c r="K39" s="24">
         <f t="shared" si="2"/>
-        <v>1.36</v>
+        <v>0.05</v>
       </c>
       <c r="L39" s="11">
-        <v>328.0</v>
+        <v>17.0</v>
       </c>
       <c r="M39" s="25">
-        <v>24173.0</v>
+        <v>34885.0</v>
       </c>
       <c r="N39" s="26"/>
       <c r="O39" s="26"/>
@@ -2705,41 +2713,41 @@
     </row>
     <row r="40">
       <c r="B40" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C40" s="22">
-        <v>4.11694862369751E-4</v>
+        <v>2.11203541019819E-4</v>
       </c>
       <c r="D40" s="22">
-        <v>3.97583735543233E-4</v>
+        <v>4.03505232390869E-4</v>
       </c>
       <c r="E40" s="22">
-        <v>4.34245522506228E-4</v>
-      </c>
-      <c r="F40" s="35">
-        <v>0.123416801712179</v>
+        <v>4.39649949450101E-4</v>
+      </c>
+      <c r="F40" s="22">
+        <v>0.117241131567497</v>
       </c>
       <c r="G40" s="22">
-        <v>6.91403576638549E-4</v>
+        <v>1.60359209985472E-4</v>
       </c>
       <c r="H40" s="22">
-        <v>9.21871396712958E-4</v>
+        <v>6.41436839941889E-4</v>
       </c>
       <c r="I40" s="22">
-        <v>0.00115233927499502</v>
+        <v>0.00160359207075089</v>
       </c>
       <c r="J40" s="23">
-        <v>0.00230467854999005</v>
+        <v>0.00272610643878579</v>
       </c>
       <c r="K40" s="24">
         <f t="shared" si="2"/>
-        <v>5.12</v>
+        <v>0.13</v>
       </c>
       <c r="L40" s="11">
-        <v>1237.0</v>
+        <v>45.0</v>
       </c>
       <c r="M40" s="25">
-        <v>24173.0</v>
+        <v>34885.0</v>
       </c>
       <c r="N40" s="26"/>
       <c r="O40" s="26"/>
@@ -2759,41 +2767,41 @@
     </row>
     <row r="41">
       <c r="B41" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" s="22">
-        <v>0.0114335757562363</v>
+        <v>2.74921387820878E-4</v>
       </c>
       <c r="D41" s="22">
-        <v>0.013210144049416</v>
+        <v>2.41577795772034E-4</v>
       </c>
       <c r="E41" s="22">
-        <v>0.0153840811835337</v>
+        <v>2.44641882130178E-4</v>
       </c>
       <c r="F41" s="22">
-        <v>0.171644</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0.0096796</v>
+        <v>0.116746532846701</v>
+      </c>
+      <c r="G41" s="22">
+        <v>4.81077615404501E-4</v>
       </c>
       <c r="H41" s="22">
-        <v>0.027886</v>
+        <v>6.41436839941889E-4</v>
       </c>
       <c r="I41" s="22">
-        <v>0.04448029</v>
+        <v>8.01796035375446E-4</v>
       </c>
       <c r="J41" s="23">
-        <v>0.021433509</v>
+        <v>0.00128287367988377</v>
       </c>
       <c r="K41" s="24">
         <f t="shared" si="2"/>
-        <v>64.65</v>
-      </c>
-      <c r="L41" s="11">
-        <v>15628.0</v>
+        <v>1.61</v>
+      </c>
+      <c r="L41" s="3">
+        <v>563.0</v>
       </c>
       <c r="M41" s="25">
-        <v>24173.0</v>
+        <v>34885.0</v>
       </c>
       <c r="N41" s="26"/>
       <c r="O41" s="26"/>
@@ -2812,42 +2820,42 @@
       <c r="AE41" s="20"/>
     </row>
     <row r="42">
-      <c r="B42" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="10">
-        <v>0.0121256097833052</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.0135414951902473</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.017331874920819</v>
-      </c>
-      <c r="F42" s="10">
-        <v>0.18412447</v>
+      <c r="B42" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="22">
+        <v>0.00603632361206436</v>
+      </c>
+      <c r="D42" s="22">
+        <v>0.00685990742735704</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0.00806306787465204</v>
+      </c>
+      <c r="F42" s="22">
+        <v>0.14322893</v>
       </c>
       <c r="G42" s="22">
-        <v>0.00944918</v>
-      </c>
-      <c r="H42" s="10">
-        <v>0.0301912</v>
-      </c>
-      <c r="I42" s="10">
-        <v>0.045632</v>
-      </c>
-      <c r="J42" s="28">
-        <v>0.070984</v>
-      </c>
-      <c r="K42" s="29">
+        <v>0.00545221</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0.01347</v>
+      </c>
+      <c r="I42" s="22">
+        <v>0.0206863</v>
+      </c>
+      <c r="J42" s="23">
+        <v>0.03319435</v>
+      </c>
+      <c r="K42" s="24">
         <f t="shared" si="2"/>
-        <v>56.03</v>
-      </c>
-      <c r="L42" s="30">
-        <v>13543.0</v>
-      </c>
-      <c r="M42" s="31">
-        <v>24173.0</v>
+        <v>53.42</v>
+      </c>
+      <c r="L42" s="11">
+        <v>18634.0</v>
+      </c>
+      <c r="M42" s="25">
+        <v>34885.0</v>
       </c>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
@@ -2856,396 +2864,86 @@
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
       <c r="W42" s="3"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="15">
-        <v>4.15751716235096E-4</v>
-      </c>
-      <c r="D43" s="15">
-        <v>4.99008597681481E-4</v>
-      </c>
-      <c r="E43" s="15">
-        <v>7.00059978577987E-4</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0.09302</v>
-      </c>
-      <c r="G43" s="15">
-        <v>2.7720027E-4</v>
-      </c>
-      <c r="H43" s="15">
-        <v>6.93E-4</v>
-      </c>
-      <c r="I43" s="15">
-        <v>0.0013398</v>
-      </c>
-      <c r="J43" s="16">
-        <v>0.0019404</v>
-      </c>
-      <c r="K43" s="24">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="L43" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="M43" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="22">
-        <v>3.61709867518458E-4</v>
-      </c>
-      <c r="D44" s="22">
-        <v>3.4121521064836E-4</v>
-      </c>
-      <c r="E44" s="22">
-        <v>3.35394524565042E-4</v>
-      </c>
-      <c r="F44" s="22">
-        <v>0.117041719880916</v>
-      </c>
-      <c r="G44" s="22">
-        <v>4.81077615404501E-4</v>
-      </c>
-      <c r="H44" s="22">
-        <v>9.62155230809003E-4</v>
-      </c>
-      <c r="I44" s="22">
-        <v>0.00128287367988377</v>
-      </c>
-      <c r="J44" s="23">
-        <v>0.00176395126618444</v>
-      </c>
-      <c r="K44" s="24">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="L44" s="11">
-        <v>17.0</v>
-      </c>
-      <c r="M44" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="20"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-    </row>
-    <row r="45">
-      <c r="B45" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="22">
-        <v>2.11203541019819E-4</v>
-      </c>
-      <c r="D45" s="22">
-        <v>4.03505232390869E-4</v>
-      </c>
-      <c r="E45" s="22">
-        <v>4.39649949450101E-4</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0.117241131567497</v>
-      </c>
-      <c r="G45" s="22">
-        <v>1.60359209985472E-4</v>
-      </c>
-      <c r="H45" s="22">
-        <v>6.41436839941889E-4</v>
-      </c>
-      <c r="I45" s="22">
-        <v>0.00160359207075089</v>
-      </c>
-      <c r="J45" s="23">
-        <v>0.00272610643878579</v>
-      </c>
-      <c r="K45" s="24">
-        <f t="shared" si="2"/>
-        <v>0.13</v>
-      </c>
-      <c r="L45" s="11">
-        <v>45.0</v>
-      </c>
-      <c r="M45" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="20"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="22">
-        <v>2.13850546781309E-4</v>
-      </c>
-      <c r="D46" s="22">
-        <v>2.32904286481781E-4</v>
-      </c>
-      <c r="E46" s="22">
-        <v>7.83048051379018E-4</v>
-      </c>
-      <c r="F46" s="22">
-        <v>0.117938208783164</v>
-      </c>
-      <c r="G46" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="H46" s="22">
-        <v>0.00160359207075089</v>
-      </c>
-      <c r="I46" s="22">
-        <v>0.00400898000225424</v>
-      </c>
-      <c r="J46" s="23">
-        <v>0.0052918535657227</v>
-      </c>
-      <c r="K46" s="24">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="L46" s="11">
-        <v>30.0</v>
-      </c>
-      <c r="M46" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="20"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-    </row>
-    <row r="47">
-      <c r="B47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="22">
-        <v>2.74921387820878E-4</v>
-      </c>
-      <c r="D47" s="22">
-        <v>2.41577795772034E-4</v>
-      </c>
-      <c r="E47" s="22">
-        <v>2.44641882130178E-4</v>
-      </c>
-      <c r="F47" s="22">
-        <v>0.116746532846701</v>
-      </c>
-      <c r="G47" s="22">
-        <v>4.81077615404501E-4</v>
-      </c>
-      <c r="H47" s="22">
-        <v>6.41436839941889E-4</v>
-      </c>
-      <c r="I47" s="22">
-        <v>8.01796035375446E-4</v>
-      </c>
-      <c r="J47" s="23">
-        <v>0.00128287367988377</v>
-      </c>
-      <c r="K47" s="24">
-        <f t="shared" si="2"/>
-        <v>1.61</v>
-      </c>
-      <c r="L47" s="3">
-        <v>563.0</v>
-      </c>
-      <c r="M47" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20"/>
-      <c r="AE47" s="20"/>
-    </row>
-    <row r="48">
-      <c r="B48" s="21" t="s">
+      <c r="B43" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="22">
-        <v>0.00603632361206436</v>
-      </c>
-      <c r="D48" s="22">
-        <v>0.00685990742735704</v>
-      </c>
-      <c r="E48" s="22">
-        <v>0.00806306787465204</v>
-      </c>
-      <c r="F48" s="22">
-        <v>0.14322893</v>
-      </c>
-      <c r="G48" s="22">
-        <v>0.00545221</v>
-      </c>
-      <c r="H48" s="22">
-        <v>0.01347</v>
-      </c>
-      <c r="I48" s="22">
-        <v>0.0206863</v>
-      </c>
-      <c r="J48" s="23">
-        <v>0.03319435</v>
-      </c>
-      <c r="K48" s="24">
-        <f t="shared" si="2"/>
-        <v>53.42</v>
-      </c>
-      <c r="L48" s="11">
-        <v>18634.0</v>
-      </c>
-      <c r="M48" s="25">
-        <v>34885.0</v>
-      </c>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="20"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-    </row>
-    <row r="49">
-      <c r="B49" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="36">
+      <c r="C43" s="36">
         <v>0.00852357372197727</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D43" s="36">
         <v>0.00975305959728803</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E43" s="36">
         <v>0.0125648980594379</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F43" s="36">
         <v>0.149504</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G43" s="36">
         <v>0.0076972</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H43" s="36">
         <v>0.0189223</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I43" s="36">
         <v>0.029987171292304</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J43" s="37">
         <v>0.0490699149</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K43" s="29">
         <f t="shared" si="2"/>
         <v>55.53</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L43" s="30">
         <v>19371.0</v>
       </c>
-      <c r="M49" s="31">
+      <c r="M43" s="31">
         <v>34885.0</v>
       </c>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+    </row>
+    <row r="44">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49">
+      <c r="L49" s="2"/>
     </row>
     <row r="50">
       <c r="L50" s="2"/>
@@ -6112,38 +5810,20 @@
     <row r="1004">
       <c r="L1004" s="2"/>
     </row>
-    <row r="1005">
-      <c r="L1005" s="2"/>
-    </row>
-    <row r="1006">
-      <c r="L1006" s="2"/>
-    </row>
-    <row r="1007">
-      <c r="L1007" s="2"/>
-    </row>
-    <row r="1008">
-      <c r="L1008" s="2"/>
-    </row>
-    <row r="1009">
-      <c r="L1009" s="2"/>
-    </row>
-    <row r="1010">
-      <c r="L1010" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="V36:V42"/>
-    <mergeCell ref="V43:V49"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="V4:V10"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="V11:V17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="V18:V24"/>
-    <mergeCell ref="V29:V35"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="V4:V9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="V10:V15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="V16:V21"/>
+    <mergeCell ref="V26:V31"/>
+    <mergeCell ref="V32:V37"/>
+    <mergeCell ref="V38:V43"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6183,34 +5863,34 @@
     <row r="3">
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>1</v>
@@ -6219,19 +5899,19 @@
         <v>2</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="U3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="39" t="s">
+      <c r="V3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -6239,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="40">
         <v>0.210105650001422</v>
@@ -6280,7 +5960,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R4" s="42" t="str">
         <f t="shared" ref="R4:V4" si="2">CONCATENATE(round(C4,3)," (",IF(I4&lt;0, "","+" ),round(I4,1),"%)")</f>
@@ -6305,7 +5985,7 @@
     </row>
     <row r="5">
       <c r="B5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="40">
         <v>0.29804</v>
@@ -6343,7 +6023,7 @@
         <v>-8.877642016</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R5" s="20" t="str">
         <f t="shared" ref="R5:V5" si="4">CONCATENATE(round(C5,3)," (",IF(I5&lt;0, "","+" ),round(I5,1),"%)")</f>
@@ -6368,7 +6048,7 @@
     </row>
     <row r="6">
       <c r="B6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="40">
         <v>0.31052756050487</v>
@@ -6406,7 +6086,7 @@
         <v>-3.817845297</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R6" s="20" t="str">
         <f t="shared" ref="R6:V6" si="6">CONCATENATE(round(C6,3)," (",IF(I6&lt;0, "","+" ),round(I6,1),"%)")</f>
@@ -6431,7 +6111,7 @@
     </row>
     <row r="7">
       <c r="B7" s="27" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C7" s="45">
         <v>0.31616</v>
@@ -6454,7 +6134,7 @@
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
       <c r="Q7" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R7" s="48">
         <f t="shared" ref="R7:V7" si="7">round(C7,3)</f>
@@ -6479,10 +6159,10 @@
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="40">
         <v>0.206674653339277</v>
@@ -6520,10 +6200,10 @@
         <v>-62.49698108</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R8" s="42" t="str">
         <f t="shared" ref="R8:V8" si="9">CONCATENATE(round(C8,3)," (",IF(I8&lt;0, "","+" ),round(I8,1),"%)")</f>
@@ -6548,7 +6228,7 @@
     </row>
     <row r="9">
       <c r="B9" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="40">
         <v>0.29653</v>
@@ -6586,7 +6266,7 @@
         <v>-8.234729102</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R9" s="20" t="str">
         <f t="shared" ref="R9:V9" si="11">CONCATENATE(round(C9,3)," (",IF(I9&lt;0, "","+" ),round(I9,1),"%)")</f>
@@ -6611,7 +6291,7 @@
     </row>
     <row r="10">
       <c r="B10" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="40">
         <v>0.294270158172993</v>
@@ -6649,7 +6329,7 @@
         <v>-8.379614679</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R10" s="20" t="str">
         <f t="shared" ref="R10:V10" si="13">CONCATENATE(round(C10,3)," (",IF(I10&lt;0, "","+" ),round(I10,1),"%)")</f>
@@ -6673,8 +6353,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="27" t="s">
-        <v>38</v>
+      <c r="B11" s="50" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="45">
         <v>0.30781</v>
@@ -6697,7 +6377,7 @@
       <c r="L11" s="46"/>
       <c r="M11" s="47"/>
       <c r="Q11" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R11" s="48">
         <f t="shared" ref="R11:V11" si="14">round(C11,3)</f>
@@ -6722,10 +6402,10 @@
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="40">
         <v>0.218256792040192</v>
@@ -6763,10 +6443,10 @@
         <v>-59.28010636</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R12" s="42" t="str">
         <f t="shared" ref="R12:V12" si="16">CONCATENATE(round(C12,3)," (",IF(I12&lt;0, "","+" ),round(I12,1),"%)")</f>
@@ -6791,7 +6471,7 @@
     </row>
     <row r="13">
       <c r="B13" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="40">
         <v>0.29556</v>
@@ -6829,7 +6509,7 @@
         <v>-6.132418863</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R13" s="20" t="str">
         <f t="shared" ref="R13:V13" si="18">CONCATENATE(round(C13,3)," (",IF(I13&lt;0, "","+" ),round(I13,1),"%)")</f>
@@ -6854,7 +6534,7 @@
     </row>
     <row r="14">
       <c r="B14" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="40">
         <v>0.297560185185632</v>
@@ -6892,7 +6572,7 @@
         <v>-2.888458404</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R14" s="20" t="str">
         <f t="shared" ref="R14:V14" si="20">CONCATENATE(round(C14,3)," (",IF(I14&lt;0, "","+" ),round(I14,1),"%)")</f>
@@ -6916,8 +6596,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="27" t="s">
-        <v>38</v>
+      <c r="B15" s="50" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="45">
         <v>0.3035</v>
@@ -6940,7 +6620,7 @@
       <c r="L15" s="46"/>
       <c r="M15" s="47"/>
       <c r="Q15" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R15" s="48">
         <f t="shared" ref="R15:V15" si="21">round(C15,3)</f>
@@ -7008,7 +6688,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7020,19 +6700,19 @@
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -7040,19 +6720,19 @@
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="51">
         <v>0.09885</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="51">
         <v>7.6242757E-4</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="51">
         <v>0.0024397682</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="51">
         <v>0.00472705</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>0.0067093</v>
       </c>
       <c r="G3" s="11"/>
@@ -7061,123 +6741,123 @@
       <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="53">
         <v>0.11807</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="53">
         <v>6.309E-4</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="53">
         <v>0.00252365926</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="53">
         <v>0.00847003</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="54">
         <v>0.016624</v>
       </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="52">
+        <v>19</v>
+      </c>
+      <c r="B5" s="53">
         <v>0.15013676667</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="53">
         <v>0.0088328076526</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="53">
         <v>0.0246056</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="53">
         <v>0.03596214</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <v>0.0599369</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+        <v>36</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
+        <v>39</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="54">
+        <v>40</v>
+      </c>
+      <c r="B8" s="55">
         <v>0.169755426</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="55">
         <v>0.0123028</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="55">
         <v>0.038170348</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="55">
         <v>0.0599369</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="56">
         <v>0.0984227</v>
       </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="50">
+        <v>41</v>
+      </c>
+      <c r="B11" s="51">
         <v>0.23842</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="51">
         <v>0.05108264833</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="51">
         <v>0.1065873727202</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="51">
         <v>0.152790486</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="52">
         <v>0.23391278</v>
       </c>
       <c r="G11" s="11"/>
@@ -7186,83 +6866,83 @@
       <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="53">
         <v>0.168723524</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="53">
         <v>0.01265629753</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="53">
         <v>0.036901492</v>
       </c>
-      <c r="E12" s="52">
+      <c r="E12" s="53">
         <v>0.05824946</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="54">
         <v>0.102165296</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="52">
+        <v>19</v>
+      </c>
+      <c r="B13" s="53">
         <v>0.29804</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="53">
         <v>0.07410795</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="53">
         <v>0.150198236</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="53">
         <v>0.2028057277202</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="54">
         <v>0.302073806</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53"/>
+        <v>36</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
+        <v>39</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="54">
+        <v>40</v>
+      </c>
+      <c r="B16" s="55">
         <v>0.31616</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="55">
         <v>0.0919487625</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="55">
         <v>0.177188172</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="55">
         <v>0.233455315232</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="56">
         <v>0.3315035</v>
       </c>
       <c r="G16" s="11"/>
@@ -7287,7 +6967,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -7299,19 +6979,19 @@
     <row r="20">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -7319,137 +6999,137 @@
       <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="51">
         <v>0.09813</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="51">
         <v>6.27E-4</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="51">
         <v>0.00329</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="51">
         <v>0.0050203</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="52">
         <v>0.005177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="52">
+        <v>19</v>
+      </c>
+      <c r="B22" s="53">
         <v>0.1171</v>
       </c>
-      <c r="C22" s="52">
+      <c r="C22" s="53">
         <v>0.0053</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="53">
         <v>0.016088</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="53">
         <v>0.02397</v>
       </c>
-      <c r="F22" s="53">
+      <c r="F22" s="54">
         <v>0.036593</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="54">
+        <v>40</v>
+      </c>
+      <c r="B23" s="55">
         <v>0.12</v>
       </c>
-      <c r="C23" s="54">
+      <c r="C23" s="55">
         <v>0.008</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="55">
         <v>0.01987</v>
       </c>
-      <c r="E23" s="54">
+      <c r="E23" s="55">
         <v>0.0249</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="56">
         <v>0.0381</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="60"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="61"/>
     </row>
     <row r="25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="50">
+        <v>41</v>
+      </c>
+      <c r="B26" s="51">
         <v>0.23204</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="51">
         <v>0.04439</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="51">
         <v>0.09585</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="51">
         <v>0.13868</v>
       </c>
-      <c r="F26" s="51">
+      <c r="F26" s="52">
         <v>0.21917</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="58">
+        <v>19</v>
+      </c>
+      <c r="B27" s="59">
         <v>0.30232</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="59">
         <v>0.079228</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="59">
         <v>0.1590837</v>
       </c>
-      <c r="E27" s="58">
+      <c r="E27" s="59">
         <v>0.21477879</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="60">
         <v>0.307342</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="61">
+        <v>40</v>
+      </c>
+      <c r="B28" s="62">
         <v>0.29097</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="62">
         <v>0.066677</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="62">
         <v>0.1396297</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="62">
         <v>0.18810793</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="63">
         <v>0.28647631</v>
       </c>
     </row>
@@ -7471,7 +7151,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -7481,17 +7161,17 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+        <v>44</v>
+      </c>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3">
         <v>0.28479</v>
@@ -7499,7 +7179,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="3">
         <v>0.284</v>
@@ -7507,148 +7187,148 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="3">
         <v>0.31114</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="64" t="s">
-        <v>50</v>
+      <c r="A38" s="65" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="50">
+      <c r="B41" s="51">
         <v>0.10062</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="51">
         <v>0.001591723</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="51">
         <v>0.0039793</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="51">
         <v>0.004178273</v>
       </c>
-      <c r="F41" s="51">
+      <c r="F41" s="52">
         <v>0.00477516</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53"/>
+        <v>19</v>
+      </c>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43">
       <c r="A43" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="50">
+        <v>41</v>
+      </c>
+      <c r="B46" s="51">
         <v>0.18119</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="51">
         <v>0.0220851</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="51">
         <v>0.04914445057511</v>
       </c>
-      <c r="E46" s="50">
+      <c r="E46" s="51">
         <v>0.066852368</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="52">
         <v>0.10465578</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="52">
+        <v>19</v>
+      </c>
+      <c r="B47" s="53">
         <v>0.25</v>
       </c>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
     </row>
     <row r="48">
       <c r="A48" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="61">
+        <v>40</v>
+      </c>
+      <c r="B48" s="62">
         <v>0.23533</v>
       </c>
-      <c r="C48" s="61">
+      <c r="C48" s="62">
         <v>0.040588937</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="62">
         <v>0.083764426</v>
       </c>
-      <c r="E48" s="61">
+      <c r="E48" s="62">
         <v>0.11539991945028</v>
       </c>
-      <c r="F48" s="62">
+      <c r="F48" s="63">
         <v>0.1730998</v>
       </c>
     </row>
@@ -7674,45 +7354,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="51">
         <v>0.10205</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="51">
         <v>0.0010371789103</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="51">
         <v>0.00215414073</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="51">
         <v>0.0027924</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>0.00542524317</v>
       </c>
     </row>
@@ -7720,97 +7400,97 @@
       <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="53">
         <v>0.14811</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="53">
         <v>0.003457</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="53">
         <v>0.006914</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="53">
         <v>0.01014</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="54">
         <v>0.01636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="52">
+        <v>19</v>
+      </c>
+      <c r="B5" s="53">
         <v>0.171644</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="59">
         <v>0.0096796</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="53">
         <v>0.027886</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="53">
         <v>0.04448029</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <v>0.021433509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="54">
+        <v>40</v>
+      </c>
+      <c r="B6" s="55">
         <v>0.18412447</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="62">
         <v>0.00944918</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="55">
         <v>0.0301912</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="55">
         <v>0.045632</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="56">
         <v>0.070984</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="50">
+        <v>41</v>
+      </c>
+      <c r="B9" s="51">
         <v>0.23129</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="51">
         <v>0.03837561</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="51">
         <v>0.08736237</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="51">
         <v>0.1262964755296</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="52">
         <v>0.19961704313</v>
       </c>
     </row>
@@ -7818,59 +7498,59 @@
       <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="53">
         <v>0.1505845300679</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="66">
         <v>0.0137226</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="66">
         <v>0.03486516699194</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="66">
         <v>0.05122068151</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F10" s="66">
         <v>0.088798470795</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="52">
+        <v>19</v>
+      </c>
+      <c r="B11" s="53">
         <v>0.29653</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="53">
         <v>0.0726823</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="53">
         <v>0.1517472416162</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="53">
         <v>0.2045635879039</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="54">
         <v>0.30317535</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="54">
+        <v>40</v>
+      </c>
+      <c r="B12" s="55">
         <v>0.30781</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="55">
         <v>0.07762885</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="55">
         <v>0.16283708</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="55">
         <v>0.22395084798336</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="56">
         <v>0.33038136</v>
       </c>
     </row>
@@ -7884,7 +7564,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
@@ -7895,155 +7575,155 @@
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="51">
         <v>0.10205</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="51">
         <v>0.0010371</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="51">
         <v>0.0021541</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="51">
         <v>0.002792</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="52">
         <v>0.005425</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="52">
+        <v>19</v>
+      </c>
+      <c r="B18" s="53">
         <v>0.1077659</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="53">
         <v>0.002074</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="53">
         <v>0.005531</v>
       </c>
-      <c r="E18" s="52">
+      <c r="E18" s="53">
         <v>0.010371</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="60">
         <v>0.020281</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="54">
+        <v>40</v>
+      </c>
+      <c r="B19" s="55">
         <v>0.1117</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="55">
         <v>0.0032</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="55">
         <v>0.0066835</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="55">
         <v>0.010601</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="63">
         <v>0.019128</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="50">
+        <v>41</v>
+      </c>
+      <c r="B22" s="51">
         <v>0.23129</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="51">
         <v>0.03837</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="51">
         <v>0.087362</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="51">
         <v>0.1262964</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="52">
         <v>0.199617</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="58">
+        <v>19</v>
+      </c>
+      <c r="B23" s="59">
         <v>0.29588</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="59">
         <v>0.0746768</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="59">
         <v>0.15086963</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="53">
         <v>0.2049625</v>
       </c>
-      <c r="F23" s="53">
+      <c r="F23" s="54">
         <v>0.301579713</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="54">
+        <v>40</v>
+      </c>
+      <c r="B24" s="55">
         <v>0.2959</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="62">
         <v>0.0678953</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="62">
         <v>0.1464815</v>
       </c>
-      <c r="E24" s="54">
+      <c r="E24" s="55">
         <v>0.20552098751</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="56">
         <v>0.30604755</v>
       </c>
     </row>
@@ -8070,45 +7750,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="51">
         <v>0.09302</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="51">
         <v>2.7720027E-4</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="51">
         <v>6.93E-4</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="51">
         <v>0.0013398</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="52">
         <v>0.0019404</v>
       </c>
     </row>
@@ -8116,100 +7796,100 @@
       <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="53">
         <v>0.11726</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C4" s="53">
         <v>1.603E-4</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="53">
         <v>6.4143E-4</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="53">
         <v>0.0014432</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="54">
         <v>0.00256574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="52">
+        <v>19</v>
+      </c>
+      <c r="B5" s="53">
         <v>0.14322893</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="53">
         <v>0.00545221</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="53">
         <v>0.01347</v>
       </c>
-      <c r="E5" s="52">
+      <c r="E5" s="53">
         <v>0.0206863</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="54">
         <v>0.03319435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="54">
+        <v>40</v>
+      </c>
+      <c r="B6" s="55">
         <v>0.149504</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="55">
         <v>0.0076972</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="55">
         <v>0.0189223</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="55">
         <v>0.029987171292304</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="56">
         <v>0.0490699149</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7">
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9">
       <c r="A9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="50">
+        <v>41</v>
+      </c>
+      <c r="B9" s="51">
         <v>0.25136</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="51">
         <v>0.047586046159</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="51">
         <v>0.110602907836</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="51">
         <v>0.1596211642</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="52">
         <v>0.25460845</v>
       </c>
     </row>
@@ -8217,59 +7897,59 @@
       <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="53">
         <v>0.1265511227</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="53">
         <v>0.0047586048</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="53">
         <v>0.01298221</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="53">
         <v>0.02263802289</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="54">
         <v>0.0449988</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="52">
+        <v>19</v>
+      </c>
+      <c r="B11" s="53">
         <v>0.29556</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="53">
         <v>0.0679602697</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="53">
         <v>0.14224994</v>
       </c>
-      <c r="E11" s="52">
+      <c r="E11" s="53">
         <v>0.196904599666595</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="54">
         <v>0.2927697002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="54">
+        <v>40</v>
+      </c>
+      <c r="B12" s="55">
         <v>0.3035</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="55">
         <v>0.076692074</v>
       </c>
-      <c r="D12" s="54">
+      <c r="D12" s="55">
         <v>0.15472395</v>
       </c>
-      <c r="E12" s="54">
+      <c r="E12" s="55">
         <v>0.20965580642223</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="56">
         <v>0.3118965</v>
       </c>
     </row>
@@ -8290,166 +7970,166 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+        <v>42</v>
+      </c>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="51">
         <v>0.09302</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="51">
         <v>2.772E-4</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="51">
         <v>6.93E-4</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="51">
         <v>0.00133</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="52">
         <v>0.0019404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="58">
+        <v>19</v>
+      </c>
+      <c r="B18" s="59">
         <v>0.0943624</v>
       </c>
-      <c r="C18" s="58">
+      <c r="C18" s="59">
         <v>0.0017639</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="59">
         <v>0.005291</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="59">
         <v>0.00721616</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="60">
         <v>0.0110647855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="61">
+        <v>40</v>
+      </c>
+      <c r="B19" s="62">
         <v>0.09125137</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="62">
         <v>0.0011225</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="62">
         <v>0.003046824</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E19" s="62">
         <v>0.00465</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="63">
         <v>0.009300833</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="50">
+        <v>41</v>
+      </c>
+      <c r="B22" s="51">
         <v>0.25136</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="51">
         <v>0.047586046</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="51">
         <v>0.11060290783</v>
       </c>
-      <c r="E22" s="50">
+      <c r="E22" s="51">
         <v>0.159621164</v>
       </c>
-      <c r="F22" s="51">
+      <c r="F22" s="52">
         <v>0.25460845</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="58">
+        <v>19</v>
+      </c>
+      <c r="B23" s="59">
         <v>0.30111</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23" s="59">
         <v>0.0712866</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="59">
         <v>0.149872</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="59">
         <v>0.205174401402</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="60">
         <v>0.3044582903385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="61">
+        <v>40</v>
+      </c>
+      <c r="B24" s="62">
         <v>0.2903</v>
       </c>
-      <c r="C24" s="61">
+      <c r="C24" s="62">
         <v>0.0647262</v>
       </c>
-      <c r="D24" s="61">
+      <c r="D24" s="62">
         <v>0.134857937</v>
       </c>
-      <c r="E24" s="61">
+      <c r="E24" s="62">
         <v>0.18392238020896</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="63">
         <v>0.28389927</v>
       </c>
     </row>
